--- a/赛前空闲时间.xlsx
+++ b/赛前空闲时间.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="宋勃宁" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>周五</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,11 +145,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -433,7 +434,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -500,9 +501,7 @@
       <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" s="4"/>
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
